--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nannestad.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nannestad.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5880.634500000001</v>
+        <v>7858.968000000002</v>
       </c>
       <c r="C2">
-        <v>4534.672500000001</v>
+        <v>4566.936000000001</v>
       </c>
       <c r="D2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E2">
-        <v>10249.835050000002</v>
+        <v>12513.0399</v>
       </c>
       <c r="F2">
-        <v>143</v>
+        <v>167.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5037.510166016253</v>
+        <v>6329.69006304976</v>
       </c>
       <c r="I2">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J2">
-        <v>1497415</v>
+        <v>1862346</v>
       </c>
       <c r="K2">
         <v>38</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5240.309000000001</v>
+        <v>8129.959000000001</v>
       </c>
       <c r="C3">
-        <v>4342.999</v>
+        <v>4896.0405</v>
       </c>
       <c r="D3">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E3">
-        <v>10294.708349999997</v>
+        <v>12025.52345</v>
       </c>
       <c r="F3">
-        <v>128.5</v>
+        <v>534</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5072.288878150982</v>
+        <v>5347.973074326575</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>1497376</v>
+        <v>1848410</v>
       </c>
       <c r="K3">
         <v>38</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5879.7365</v>
+        <v>7880.7970000000005</v>
       </c>
       <c r="C4">
-        <v>4527.2384999999995</v>
+        <v>4565.065</v>
       </c>
       <c r="D4">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="E4">
-        <v>10334.457950000002</v>
+        <v>10918.7451</v>
       </c>
       <c r="F4">
-        <v>115</v>
+        <v>151.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5137.22166185945</v>
+        <v>5405.547760554675</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J4">
-        <v>1497383</v>
+        <v>1848404</v>
       </c>
       <c r="K4">
         <v>38</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>5879.7365</v>
+        <v>7880.7970000000005</v>
       </c>
       <c r="C5">
-        <v>4527.2384999999995</v>
+        <v>4566.936000000001</v>
       </c>
       <c r="D5">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E5">
-        <v>10294.708349999997</v>
+        <v>12025.52345</v>
       </c>
       <c r="F5">
-        <v>128.5</v>
+        <v>167.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5072.288878150982</v>
+        <v>5405.547760554675</v>
       </c>
       <c r="I5">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J5">
-        <v>1497383</v>
+        <v>1848410</v>
       </c>
       <c r="K5">
         <v>38</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>74002</v>
+        <v>73969</v>
       </c>
       <c r="F2">
-        <v>73633</v>
+        <v>73600</v>
       </c>
       <c r="G2">
-        <v>0.021520743625999997</v>
+        <v>0.021511146797</v>
       </c>
       <c r="H2">
-        <v>0.028348789762800003</v>
+        <v>0.0283361480766</v>
       </c>
     </row>
     <row r="3">
@@ -686,16 +686,16 @@
         <v>text/css</v>
       </c>
       <c r="E4">
-        <v>26253</v>
+        <v>4534</v>
       </c>
       <c r="F4">
         <v>25942</v>
       </c>
       <c r="G4">
-        <v>0.007634713688999999</v>
+        <v>0.001318546142</v>
       </c>
       <c r="H4">
-        <v>0.0100570359942</v>
+        <v>0.0017368910676000002</v>
       </c>
     </row>
     <row r="5">
@@ -790,16 +790,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E8">
-        <v>320871</v>
+        <v>320844</v>
       </c>
       <c r="F8">
         <v>1229307</v>
       </c>
       <c r="G8">
-        <v>0.09331345812299999</v>
+        <v>0.093305606172</v>
       </c>
       <c r="H8">
-        <v>0.12291971189940003</v>
+        <v>0.12290936870160002</v>
       </c>
     </row>
     <row r="9">
@@ -856,25 +856,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_700,h_393,c_fill/https://testweb.nannestad.kommune.no//contentassets/42ac9f43a2004a71a5f439e506d76cc8/kommunehuset_nsk_00485_foto_iselinn__nass.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_700,h_393,c_fill/https://testweb.nannestad.kommune.no//contentassets/42ac9f43a2004a71a5f439e506d76cc8/kommunehuset_host.png</v>
       </c>
       <c r="C11" t="str">
         <v>Image</v>
       </c>
       <c r="D11" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E11">
-        <v>97609</v>
+        <v>563743</v>
       </c>
       <c r="F11">
-        <v>97027</v>
+        <v>562549</v>
       </c>
       <c r="G11">
-        <v>0.028385966116999995</v>
+        <v>0.16394379305899998</v>
       </c>
       <c r="H11">
-        <v>0.037392192372600004</v>
+        <v>0.21595945768020003</v>
       </c>
     </row>
     <row r="12">
@@ -1021,16 +1021,16 @@
         <v>application/json</v>
       </c>
       <c r="E17">
-        <v>29598</v>
+        <v>33259</v>
       </c>
       <c r="F17">
-        <v>632300</v>
+        <v>683795</v>
       </c>
       <c r="G17">
-        <v>0.008607483173999998</v>
+        <v>0.009672149566999999</v>
       </c>
       <c r="H17">
-        <v>0.011338443277200001</v>
+        <v>0.0127409042826</v>
       </c>
     </row>
     <row r="18">
@@ -1047,16 +1047,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E18">
-        <v>13621</v>
+        <v>13619</v>
       </c>
       <c r="F18">
         <v>45188</v>
       </c>
       <c r="G18">
-        <v>0.003961163873</v>
+        <v>0.003960582247</v>
       </c>
       <c r="H18">
-        <v>0.005217951749400001</v>
+        <v>0.0052171855866</v>
       </c>
     </row>
     <row r="19">
@@ -1099,16 +1099,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E20">
-        <v>12508</v>
+        <v>12476</v>
       </c>
       <c r="F20">
         <v>12141</v>
       </c>
       <c r="G20">
-        <v>0.0036374890039999994</v>
+        <v>0.0036281829879999997</v>
       </c>
       <c r="H20">
-        <v>0.0047915821511999995</v>
+        <v>0.0047793235464</v>
       </c>
     </row>
     <row r="21">
@@ -1125,16 +1125,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E21">
-        <v>11905</v>
+        <v>11936</v>
       </c>
       <c r="F21">
         <v>11563</v>
       </c>
       <c r="G21">
-        <v>0.0034621287649999996</v>
+        <v>0.0034711439679999995</v>
       </c>
       <c r="H21">
-        <v>0.0045605840670000005</v>
+        <v>0.004572459590400001</v>
       </c>
     </row>
     <row r="22">
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F6a628011707945d9a333d368c6fd443f%2Ffolkehelseundersokelse_afk.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F3d205795ecbc4ba8a2749ad3ea7daa13%2Flesekonkurranse-3.jpg</v>
       </c>
       <c r="C22" t="str">
         <v>Image</v>
@@ -1151,16 +1151,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E22">
-        <v>24268</v>
+        <v>33067</v>
       </c>
       <c r="F22">
-        <v>23915</v>
+        <v>32705</v>
       </c>
       <c r="G22">
-        <v>0.0070574498839999986</v>
+        <v>0.009616313470999999</v>
       </c>
       <c r="H22">
-        <v>0.0092966194152</v>
+        <v>0.0126673526538</v>
       </c>
     </row>
     <row r="23">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2Fd882f77a7efb46428b463ac352aa04b4%2Fforslag-til-budsjett.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F6a628011707945d9a333d368c6fd443f%2Ffolkehelseundersokelse_afk.jpg</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
@@ -1177,16 +1177,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E23">
-        <v>24975</v>
+        <v>24259</v>
       </c>
       <c r="F23">
-        <v>24622</v>
+        <v>23915</v>
       </c>
       <c r="G23">
-        <v>0.007263054674999998</v>
+        <v>0.007054832566999999</v>
       </c>
       <c r="H23">
-        <v>0.009567457965000001</v>
+        <v>0.0092931716826</v>
       </c>
     </row>
     <row r="24">
@@ -1194,25 +1194,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F843fae3a7bec4ad68ffd15ed1460247d%2Fkommunehuset.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2Fd882f77a7efb46428b463ac352aa04b4%2Fforslag-til-budsjett.jpg</v>
       </c>
       <c r="C24" t="str">
         <v>Image</v>
       </c>
       <c r="D24" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>146018</v>
+        <v>24975</v>
       </c>
       <c r="F24">
-        <v>145520</v>
+        <v>24622</v>
       </c>
       <c r="G24">
-        <v>0.042463932633999994</v>
+        <v>0.007263054674999998</v>
       </c>
       <c r="H24">
-        <v>0.05593677986520001</v>
+        <v>0.009567457965000001</v>
       </c>
     </row>
     <row r="25">
@@ -1229,16 +1229,16 @@
         <v>text/css</v>
       </c>
       <c r="E25">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F25">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G25">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H25">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="26">
@@ -1255,16 +1255,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E26">
-        <v>325285</v>
+        <v>325276</v>
       </c>
       <c r="F26">
         <v>1249958</v>
       </c>
       <c r="G26">
-        <v>0.09459710670499999</v>
+        <v>0.09459448938799998</v>
       </c>
       <c r="H26">
-        <v>0.124610633199</v>
+        <v>0.1246071854664</v>
       </c>
     </row>
     <row r="27">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1173&amp;luid=40246a5f-697d-a1b4-1c65-70cb3274265b&amp;dnt=true&amp;prev=d34906e7-f5f4-32f2-af8d-8edb55ffe577&amp;rnd=6075</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1404&amp;luid=626ed111-afb1-ace8-2e3e-996dddb890c6&amp;dnt=true&amp;prev=c375986b-7c2e-a4ed-28db-c1cb1e810742&amp;rnd=97643</v>
       </c>
       <c r="C27" t="str">
         <v>Image</v>
@@ -1408,16 +1408,16 @@
         <v>text/json</v>
       </c>
       <c r="E32">
-        <v>7416</v>
+        <v>7415</v>
       </c>
       <c r="F32">
         <v>28951</v>
       </c>
       <c r="G32">
-        <v>0.0021566692079999995</v>
+        <v>0.0021563783949999998</v>
       </c>
       <c r="H32">
-        <v>0.0028409316624000004</v>
+        <v>0.0028405485810000003</v>
       </c>
     </row>
     <row r="33">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DF313DBEAFE815B65196E3D8718A896971724E6D2_2109211606.jpg%26dh%3D1141%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D20250829_165411_994890668.jpg%26dh%3D604%26dw%3D800</v>
       </c>
       <c r="C37" t="str">
         <v>Image</v>
@@ -1535,16 +1535,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E37">
-        <v>18493</v>
+        <v>31767</v>
       </c>
       <c r="F37">
-        <v>17972</v>
+        <v>31419</v>
       </c>
       <c r="G37">
-        <v>0.005378004808999999</v>
+        <v>0.009238256571</v>
       </c>
       <c r="H37">
-        <v>0.0070843243302000005</v>
+        <v>0.0121693468338</v>
       </c>
     </row>
     <row r="38">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D20250829_165411_994890668.jpg%26dh%3D604%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DUtvandringen_mindre_fil_2__1465306524.jpg%26dh%3D525%26dw%3D800</v>
       </c>
       <c r="C38" t="str">
         <v>Image</v>
@@ -1561,16 +1561,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E38">
-        <v>31799</v>
+        <v>27077</v>
       </c>
       <c r="F38">
-        <v>31419</v>
+        <v>26533</v>
       </c>
       <c r="G38">
-        <v>0.009247562586999998</v>
+        <v>0.007874343600999999</v>
       </c>
       <c r="H38">
-        <v>0.0121816054386</v>
+        <v>0.010372695067800001</v>
       </c>
     </row>
     <row r="39">
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DUtvandringen_mindre_fil_2__1465306524.jpg%26dh%3D525%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DFE2341D0B39756672FADFF57550E9F03BA715E6C_154839186.jpg%26dh%3D600%26dw%3D800</v>
       </c>
       <c r="C39" t="str">
         <v>Image</v>
@@ -1587,16 +1587,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E39">
-        <v>26881</v>
+        <v>48100</v>
       </c>
       <c r="F39">
-        <v>26533</v>
+        <v>47726</v>
       </c>
       <c r="G39">
-        <v>0.007817344252999998</v>
+        <v>0.013988105299999998</v>
       </c>
       <c r="H39">
-        <v>0.010297611113400003</v>
+        <v>0.018426215340000003</v>
       </c>
     </row>
     <row r="40">
@@ -1613,16 +1613,16 @@
         <v>text/html</v>
       </c>
       <c r="E40">
-        <v>74002</v>
+        <v>73969</v>
       </c>
       <c r="F40">
-        <v>73633</v>
+        <v>73600</v>
       </c>
       <c r="G40">
-        <v>0.021520743625999997</v>
+        <v>0.021511146797</v>
       </c>
       <c r="H40">
-        <v>0.028348789762800003</v>
+        <v>0.0283361480766</v>
       </c>
     </row>
     <row r="41">
@@ -1665,16 +1665,16 @@
         <v>text/css</v>
       </c>
       <c r="E42">
-        <v>26253</v>
+        <v>4534</v>
       </c>
       <c r="F42">
         <v>25942</v>
       </c>
       <c r="G42">
-        <v>0.007634713688999999</v>
+        <v>0.001318546142</v>
       </c>
       <c r="H42">
-        <v>0.0100570359942</v>
+        <v>0.0017368910676000002</v>
       </c>
     </row>
     <row r="43">
@@ -1835,25 +1835,25 @@
         <v>2</v>
       </c>
       <c r="B49" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_700,h_393,c_fill/https://testweb.nannestad.kommune.no//contentassets/42ac9f43a2004a71a5f439e506d76cc8/kommunehuset_nsk_00485_foto_iselinn__nass.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_700,h_393,c_fill/https://testweb.nannestad.kommune.no//contentassets/42ac9f43a2004a71a5f439e506d76cc8/kommunehuset_host.png</v>
       </c>
       <c r="C49" t="str">
         <v>Image</v>
       </c>
       <c r="D49" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E49">
-        <v>97610</v>
+        <v>563424</v>
       </c>
       <c r="F49">
-        <v>97027</v>
+        <v>562549</v>
       </c>
       <c r="G49">
-        <v>0.028386256929999996</v>
+        <v>0.163851023712</v>
       </c>
       <c r="H49">
-        <v>0.037392575454</v>
+        <v>0.21583725471360005</v>
       </c>
     </row>
     <row r="50">
@@ -2000,16 +2000,16 @@
         <v>application/json</v>
       </c>
       <c r="E55">
-        <v>29598</v>
+        <v>33259</v>
       </c>
       <c r="F55">
-        <v>632300</v>
+        <v>683795</v>
       </c>
       <c r="G55">
-        <v>0.008607483173999998</v>
+        <v>0.009672149566999999</v>
       </c>
       <c r="H55">
-        <v>0.011338443277200001</v>
+        <v>0.0127409042826</v>
       </c>
     </row>
     <row r="56">
@@ -2078,16 +2078,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E58">
-        <v>12475</v>
+        <v>12712</v>
       </c>
       <c r="F58">
         <v>12141</v>
       </c>
       <c r="G58">
-        <v>0.003627892175</v>
+        <v>0.0036968148559999997</v>
       </c>
       <c r="H58">
-        <v>0.004778940465000001</v>
+        <v>0.0048697307568</v>
       </c>
     </row>
     <row r="59">
@@ -2104,16 +2104,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E59">
-        <v>11895</v>
+        <v>12133</v>
       </c>
       <c r="F59">
         <v>11563</v>
       </c>
       <c r="G59">
-        <v>0.003459220635</v>
+        <v>0.0035284341289999995</v>
       </c>
       <c r="H59">
-        <v>0.004556753253000001</v>
+        <v>0.0046479266262</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F6a628011707945d9a333d368c6fd443f%2Ffolkehelseundersokelse_afk.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F3d205795ecbc4ba8a2749ad3ea7daa13%2Flesekonkurranse-3.jpg</v>
       </c>
       <c r="C60" t="str">
         <v>Image</v>
@@ -2130,16 +2130,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E60">
-        <v>24267</v>
+        <v>33302</v>
       </c>
       <c r="F60">
-        <v>23915</v>
+        <v>32705</v>
       </c>
       <c r="G60">
-        <v>0.007057159070999999</v>
+        <v>0.009684654526</v>
       </c>
       <c r="H60">
-        <v>0.009296236333800001</v>
+        <v>0.012757376782800003</v>
       </c>
     </row>
     <row r="61">
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2Fd882f77a7efb46428b463ac352aa04b4%2Fforslag-til-budsjett.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F6a628011707945d9a333d368c6fd443f%2Ffolkehelseundersokelse_afk.jpg</v>
       </c>
       <c r="C61" t="str">
         <v>Image</v>
@@ -2156,16 +2156,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E61">
-        <v>24975</v>
+        <v>24512</v>
       </c>
       <c r="F61">
-        <v>24622</v>
+        <v>23915</v>
       </c>
       <c r="G61">
-        <v>0.007263054674999998</v>
+        <v>0.007128408255999999</v>
       </c>
       <c r="H61">
-        <v>0.009567457965000001</v>
+        <v>0.0093900912768</v>
       </c>
     </row>
     <row r="62">
@@ -2173,25 +2173,25 @@
         <v>2</v>
       </c>
       <c r="B62" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F843fae3a7bec4ad68ffd15ed1460247d%2Fkommunehuset.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2Fd882f77a7efb46428b463ac352aa04b4%2Fforslag-til-budsjett.jpg</v>
       </c>
       <c r="C62" t="str">
         <v>Image</v>
       </c>
       <c r="D62" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E62">
-        <v>146027</v>
+        <v>25220</v>
       </c>
       <c r="F62">
-        <v>145520</v>
+        <v>24622</v>
       </c>
       <c r="G62">
-        <v>0.04246654995099999</v>
+        <v>0.007334303859999999</v>
       </c>
       <c r="H62">
-        <v>0.0559402275978</v>
+        <v>0.009661312908</v>
       </c>
     </row>
     <row r="63">
@@ -2208,16 +2208,16 @@
         <v>text/css</v>
       </c>
       <c r="E63">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F63">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G63">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H63">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="64">
@@ -2234,16 +2234,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E64">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F64">
         <v>1249958</v>
       </c>
       <c r="G64">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H64">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="65">
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1145&amp;luid=de4d66d2-7164-7ce5-a6e9-c72ea0909be2&amp;dnt=true&amp;prev=2d009461-e485-cf54-b7e2-b4588a7d4829&amp;rnd=70159</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1333&amp;luid=b0f40bbf-49bf-7e7c-e8d6-678437788f0b&amp;dnt=true&amp;prev=8a89c170-73de-6fdb-ab80-c93a240727a8&amp;rnd=22358</v>
       </c>
       <c r="C65" t="str">
         <v>Image</v>
@@ -2387,16 +2387,16 @@
         <v>text/json</v>
       </c>
       <c r="E70">
-        <v>7415</v>
+        <v>7416</v>
       </c>
       <c r="F70">
         <v>28951</v>
       </c>
       <c r="G70">
-        <v>0.0021563783949999998</v>
+        <v>0.0021566692079999995</v>
       </c>
       <c r="H70">
-        <v>0.0028405485810000003</v>
+        <v>0.0028409316624000004</v>
       </c>
     </row>
     <row r="71">
@@ -2413,16 +2413,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E71">
-        <v>25693</v>
+        <v>10396</v>
       </c>
       <c r="F71">
         <v>25314</v>
       </c>
       <c r="G71">
-        <v>0.007471858408999999</v>
+        <v>0.0030232919479999997</v>
       </c>
       <c r="H71">
-        <v>0.0098425104102</v>
+        <v>0.003982514234400001</v>
       </c>
     </row>
     <row r="72">
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DF313DBEAFE815B65196E3D8718A896971724E6D2_2109211606.jpg%26dh%3D1141%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D20250829_165411_994890668.jpg%26dh%3D604%26dw%3D800</v>
       </c>
       <c r="C75" t="str">
         <v>Image</v>
@@ -2514,16 +2514,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E75">
-        <v>18516</v>
+        <v>31995</v>
       </c>
       <c r="F75">
-        <v>17972</v>
+        <v>31419</v>
       </c>
       <c r="G75">
-        <v>0.005384693508</v>
+        <v>0.009304561935</v>
       </c>
       <c r="H75">
-        <v>0.007093135202400001</v>
+        <v>0.012256689393000003</v>
       </c>
     </row>
     <row r="76">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D20250829_165411_994890668.jpg%26dh%3D604%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DUtvandringen_mindre_fil_2__1465306524.jpg%26dh%3D525%26dw%3D800</v>
       </c>
       <c r="C76" t="str">
         <v>Image</v>
@@ -2540,16 +2540,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E76">
-        <v>31776</v>
+        <v>27109</v>
       </c>
       <c r="F76">
-        <v>31419</v>
+        <v>26533</v>
       </c>
       <c r="G76">
-        <v>0.009240873888</v>
+        <v>0.007883649617</v>
       </c>
       <c r="H76">
-        <v>0.0121727945664</v>
+        <v>0.010384953672600002</v>
       </c>
     </row>
     <row r="77">
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DUtvandringen_mindre_fil_2__1465306524.jpg%26dh%3D525%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DFE2341D0B39756672FADFF57550E9F03BA715E6C_154839186.jpg%26dh%3D600%26dw%3D800</v>
       </c>
       <c r="C77" t="str">
         <v>Image</v>
@@ -2566,16 +2566,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E77">
-        <v>26881</v>
+        <v>48310</v>
       </c>
       <c r="F77">
-        <v>26533</v>
+        <v>47726</v>
       </c>
       <c r="G77">
-        <v>0.007817344252999998</v>
+        <v>0.014049176029999999</v>
       </c>
       <c r="H77">
-        <v>0.010297611113400003</v>
+        <v>0.018506662434000003</v>
       </c>
     </row>
     <row r="78">
@@ -2592,16 +2592,16 @@
         <v>text/html</v>
       </c>
       <c r="E78">
-        <v>74002</v>
+        <v>73969</v>
       </c>
       <c r="F78">
-        <v>73633</v>
+        <v>73600</v>
       </c>
       <c r="G78">
-        <v>0.021520743625999997</v>
+        <v>0.021511146797</v>
       </c>
       <c r="H78">
-        <v>0.028348789762800003</v>
+        <v>0.0283361480766</v>
       </c>
     </row>
     <row r="79">
@@ -2644,16 +2644,16 @@
         <v>text/css</v>
       </c>
       <c r="E80">
-        <v>26253</v>
+        <v>4534</v>
       </c>
       <c r="F80">
         <v>25942</v>
       </c>
       <c r="G80">
-        <v>0.007634713688999999</v>
+        <v>0.001318546142</v>
       </c>
       <c r="H80">
-        <v>0.0100570359942</v>
+        <v>0.0017368910676000002</v>
       </c>
     </row>
     <row r="81">
@@ -2814,25 +2814,25 @@
         <v>3</v>
       </c>
       <c r="B87" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_700,h_393,c_fill/https://testweb.nannestad.kommune.no//contentassets/42ac9f43a2004a71a5f439e506d76cc8/kommunehuset_nsk_00485_foto_iselinn__nass.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_700,h_393,c_fill/https://testweb.nannestad.kommune.no//contentassets/42ac9f43a2004a71a5f439e506d76cc8/kommunehuset_host.png</v>
       </c>
       <c r="C87" t="str">
         <v>Image</v>
       </c>
       <c r="D87" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E87">
-        <v>97609</v>
+        <v>563424</v>
       </c>
       <c r="F87">
-        <v>97027</v>
+        <v>562549</v>
       </c>
       <c r="G87">
-        <v>0.028385966116999995</v>
+        <v>0.163851023712</v>
       </c>
       <c r="H87">
-        <v>0.037392192372600004</v>
+        <v>0.21583725471360005</v>
       </c>
     </row>
     <row r="88">
@@ -2979,16 +2979,16 @@
         <v>application/json</v>
       </c>
       <c r="E93">
-        <v>29598</v>
+        <v>33259</v>
       </c>
       <c r="F93">
-        <v>632300</v>
+        <v>683795</v>
       </c>
       <c r="G93">
-        <v>0.008607483173999998</v>
+        <v>0.009672149566999999</v>
       </c>
       <c r="H93">
-        <v>0.011338443277200001</v>
+        <v>0.0127409042826</v>
       </c>
     </row>
     <row r="94">
@@ -3005,16 +3005,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E94">
-        <v>13622</v>
+        <v>13614</v>
       </c>
       <c r="F94">
         <v>45188</v>
       </c>
       <c r="G94">
-        <v>0.0039614546859999995</v>
+        <v>0.003959128181999999</v>
       </c>
       <c r="H94">
-        <v>0.005218334830800001</v>
+        <v>0.005215270179600001</v>
       </c>
     </row>
     <row r="95">
@@ -3057,16 +3057,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E96">
-        <v>12476</v>
+        <v>12712</v>
       </c>
       <c r="F96">
         <v>12141</v>
       </c>
       <c r="G96">
-        <v>0.0036281829879999997</v>
+        <v>0.0036968148559999997</v>
       </c>
       <c r="H96">
-        <v>0.0047793235464</v>
+        <v>0.0048697307568</v>
       </c>
     </row>
     <row r="97">
@@ -3083,16 +3083,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E97">
-        <v>11896</v>
+        <v>12132</v>
       </c>
       <c r="F97">
         <v>11563</v>
       </c>
       <c r="G97">
-        <v>0.0034595114479999997</v>
+        <v>0.0035281433159999997</v>
       </c>
       <c r="H97">
-        <v>0.004557136334400001</v>
+        <v>0.004647543544800001</v>
       </c>
     </row>
     <row r="98">
@@ -3100,7 +3100,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F6a628011707945d9a333d368c6fd443f%2Ffolkehelseundersokelse_afk.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F3d205795ecbc4ba8a2749ad3ea7daa13%2Flesekonkurranse-3.jpg</v>
       </c>
       <c r="C98" t="str">
         <v>Image</v>
@@ -3109,16 +3109,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E98">
-        <v>24268</v>
+        <v>33302</v>
       </c>
       <c r="F98">
-        <v>23915</v>
+        <v>32705</v>
       </c>
       <c r="G98">
-        <v>0.0070574498839999986</v>
+        <v>0.009684654526</v>
       </c>
       <c r="H98">
-        <v>0.0092966194152</v>
+        <v>0.012757376782800003</v>
       </c>
     </row>
     <row r="99">
@@ -3126,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2Fd882f77a7efb46428b463ac352aa04b4%2Fforslag-til-budsjett.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F6a628011707945d9a333d368c6fd443f%2Ffolkehelseundersokelse_afk.jpg</v>
       </c>
       <c r="C99" t="str">
         <v>Image</v>
@@ -3135,16 +3135,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E99">
-        <v>24984</v>
+        <v>24512</v>
       </c>
       <c r="F99">
-        <v>24622</v>
+        <v>23915</v>
       </c>
       <c r="G99">
-        <v>0.007265671991999999</v>
+        <v>0.007128408255999999</v>
       </c>
       <c r="H99">
-        <v>0.009570905697600001</v>
+        <v>0.0093900912768</v>
       </c>
     </row>
     <row r="100">
@@ -3152,25 +3152,25 @@
         <v>3</v>
       </c>
       <c r="B100" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2F843fae3a7bec4ad68ffd15ed1460247d%2Fkommunehuset.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.nannestad.kommune.no%2F%2Fcontentassets%2Fd882f77a7efb46428b463ac352aa04b4%2Fforslag-til-budsjett.jpg</v>
       </c>
       <c r="C100" t="str">
         <v>Image</v>
       </c>
       <c r="D100" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E100">
-        <v>146018</v>
+        <v>25219</v>
       </c>
       <c r="F100">
-        <v>145520</v>
+        <v>24622</v>
       </c>
       <c r="G100">
-        <v>0.042463932633999994</v>
+        <v>0.007334013046999999</v>
       </c>
       <c r="H100">
-        <v>0.05593677986520001</v>
+        <v>0.009660929826600002</v>
       </c>
     </row>
     <row r="101">
@@ -3187,16 +3187,16 @@
         <v>text/css</v>
       </c>
       <c r="E101">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F101">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G101">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H101">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="102">
@@ -3213,16 +3213,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E102">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F102">
         <v>1249958</v>
       </c>
       <c r="G102">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H102">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="103">
@@ -3230,7 +3230,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1169&amp;luid=d6072f37-752e-d287-c4b3-0fc6ae2cc470&amp;dnt=true&amp;prev=74912e68-d253-eed5-4dc8-c769fccc35e7&amp;rnd=48063</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1200&amp;luid=24e3d3fa-2eb0-bf95-a9e2-df4aedd50d6e&amp;dnt=true&amp;prev=0a84d36c-1e01-9de7-f584-a89829821ad6&amp;rnd=17577</v>
       </c>
       <c r="C103" t="str">
         <v>Image</v>
@@ -3366,16 +3366,16 @@
         <v>text/json</v>
       </c>
       <c r="E108">
-        <v>7415</v>
+        <v>7416</v>
       </c>
       <c r="F108">
         <v>28951</v>
       </c>
       <c r="G108">
-        <v>0.0021563783949999998</v>
+        <v>0.0021566692079999995</v>
       </c>
       <c r="H108">
-        <v>0.0028405485810000003</v>
+        <v>0.0028409316624000004</v>
       </c>
     </row>
     <row r="109">
@@ -3392,16 +3392,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E109">
-        <v>25693</v>
+        <v>10396</v>
       </c>
       <c r="F109">
         <v>25314</v>
       </c>
       <c r="G109">
-        <v>0.007471858408999999</v>
+        <v>0.0030232919479999997</v>
       </c>
       <c r="H109">
-        <v>0.0098425104102</v>
+        <v>0.003982514234400001</v>
       </c>
     </row>
     <row r="110">
@@ -3484,7 +3484,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DF313DBEAFE815B65196E3D8718A896971724E6D2_2109211606.jpg%26dh%3D1141%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D20250829_165411_994890668.jpg%26dh%3D604%26dw%3D800</v>
       </c>
       <c r="C113" t="str">
         <v>Image</v>
@@ -3493,16 +3493,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E113">
-        <v>18311</v>
+        <v>31995</v>
       </c>
       <c r="F113">
-        <v>17972</v>
+        <v>31419</v>
       </c>
       <c r="G113">
-        <v>0.0053250768429999994</v>
+        <v>0.009304561935</v>
       </c>
       <c r="H113">
-        <v>0.0070146035154</v>
+        <v>0.012256689393000003</v>
       </c>
     </row>
     <row r="114">
@@ -3510,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D20250829_165411_994890668.jpg%26dh%3D604%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DUtvandringen_mindre_fil_2__1465306524.jpg%26dh%3D525%26dw%3D800</v>
       </c>
       <c r="C114" t="str">
         <v>Image</v>
@@ -3519,16 +3519,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E114">
-        <v>31776</v>
+        <v>27109</v>
       </c>
       <c r="F114">
-        <v>31419</v>
+        <v>26533</v>
       </c>
       <c r="G114">
-        <v>0.009240873888</v>
+        <v>0.007883649617</v>
       </c>
       <c r="H114">
-        <v>0.0121727945664</v>
+        <v>0.010384953672600002</v>
       </c>
     </row>
     <row r="115">
@@ -3536,7 +3536,7 @@
         <v>3</v>
       </c>
       <c r="B115" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DUtvandringen_mindre_fil_2__1465306524.jpg%26dh%3D525%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DFE2341D0B39756672FADFF57550E9F03BA715E6C_154839186.jpg%26dh%3D600%26dw%3D800</v>
       </c>
       <c r="C115" t="str">
         <v>Image</v>
@@ -3545,16 +3545,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E115">
-        <v>27086</v>
+        <v>48309</v>
       </c>
       <c r="F115">
-        <v>26533</v>
+        <v>47726</v>
       </c>
       <c r="G115">
-        <v>0.007876960918</v>
+        <v>0.014048885216999998</v>
       </c>
       <c r="H115">
-        <v>0.010376142800400001</v>
+        <v>0.018506279352600002</v>
       </c>
     </row>
   </sheetData>
@@ -3593,10 +3593,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>222006</v>
+        <v>221907</v>
       </c>
       <c r="D2">
-        <v>220899</v>
+        <v>220800</v>
       </c>
     </row>
     <row r="3">
@@ -3607,7 +3607,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>280836</v>
+        <v>215679</v>
       </c>
       <c r="D3">
         <v>1323168</v>
@@ -3621,7 +3621,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>2310978</v>
+        <v>2310950</v>
       </c>
       <c r="D4">
         <v>8554095</v>
@@ -3649,10 +3649,10 @@
         <v>45</v>
       </c>
       <c r="C6">
-        <v>1365963</v>
+        <v>2486898</v>
       </c>
       <c r="D6">
-        <v>1350432</v>
+        <v>2497815</v>
       </c>
     </row>
     <row r="7">
@@ -3663,10 +3663,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>154965</v>
+        <v>166299</v>
       </c>
       <c r="D7">
-        <v>2664717</v>
+        <v>2822985</v>
       </c>
     </row>
     <row r="8">
@@ -3691,7 +3691,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>22246</v>
+        <v>22247</v>
       </c>
       <c r="D9">
         <v>86853</v>
@@ -3758,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1497415</v>
+        <v>1862346</v>
       </c>
       <c r="C2">
-        <v>0.43546774839499997</v>
+        <v>0.5415944272979999</v>
       </c>
       <c r="D2">
-        <v>0.5736318345810001</v>
+        <v>0.7134301129644001</v>
       </c>
     </row>
     <row r="3">
@@ -3772,13 +3772,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1497376</v>
+        <v>1848410</v>
       </c>
       <c r="C3">
-        <v>0.43545640668799995</v>
+        <v>0.5375416573299999</v>
       </c>
       <c r="D3">
-        <v>0.5736168944064</v>
+        <v>0.7080914905740001</v>
       </c>
     </row>
     <row r="4">
@@ -3786,13 +3786,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1497383</v>
+        <v>1848404</v>
       </c>
       <c r="C4">
-        <v>0.43545844237899994</v>
+        <v>0.537539912452</v>
       </c>
       <c r="D4">
-        <v>0.5736195759762001</v>
+        <v>0.7080891920856001</v>
       </c>
     </row>
     <row r="5">
@@ -3800,13 +3800,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1497383</v>
+        <v>1848410</v>
       </c>
       <c r="C5">
-        <v>0.43545844237899994</v>
+        <v>0.5375416573299999</v>
       </c>
       <c r="D5">
-        <v>0.5736195759762001</v>
+        <v>0.7080914905740001</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nannestad.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nannestad.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7858.968000000002</v>
+        <v>7869.522000000001</v>
       </c>
       <c r="C2">
-        <v>4566.936000000001</v>
+        <v>4476.110000000001</v>
       </c>
       <c r="D2">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="E2">
-        <v>12513.0399</v>
+        <v>11094.5105</v>
       </c>
       <c r="F2">
-        <v>167.5</v>
+        <v>238</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6329.69006304976</v>
+        <v>5087.555288298436</v>
       </c>
       <c r="I2">
         <v>59</v>
       </c>
       <c r="J2">
-        <v>1862346</v>
+        <v>1862377</v>
       </c>
       <c r="K2">
         <v>38</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8129.959000000001</v>
+        <v>7842.3899999999985</v>
       </c>
       <c r="C3">
-        <v>4896.0405</v>
+        <v>4602.015</v>
       </c>
       <c r="D3">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="E3">
-        <v>12025.52345</v>
+        <v>10935.2726</v>
       </c>
       <c r="F3">
-        <v>534</v>
+        <v>150</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.005440774239339054</v>
       </c>
       <c r="H3">
-        <v>5347.973074326575</v>
+        <v>5439.594827878651</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>1848410</v>
+        <v>1862349</v>
       </c>
       <c r="K3">
         <v>38</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7880.7970000000005</v>
+        <v>7865.212000000001</v>
       </c>
       <c r="C4">
-        <v>4565.065</v>
+        <v>4597.117</v>
       </c>
       <c r="D4">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="E4">
-        <v>10918.7451</v>
+        <v>11130.367749999998</v>
       </c>
       <c r="F4">
-        <v>151.5</v>
+        <v>192</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5405.547760554675</v>
+        <v>5850.856722118172</v>
       </c>
       <c r="I4">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J4">
-        <v>1848404</v>
+        <v>1862365</v>
       </c>
       <c r="K4">
         <v>38</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>7880.7970000000005</v>
+        <v>7865.212000000001</v>
       </c>
       <c r="C5">
-        <v>4566.936000000001</v>
+        <v>4597.117</v>
       </c>
       <c r="D5">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="E5">
-        <v>12025.52345</v>
+        <v>11094.5105</v>
       </c>
       <c r="F5">
-        <v>167.5</v>
+        <v>192</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5405.547760554675</v>
+        <v>5439.594827878651</v>
       </c>
       <c r="I5">
         <v>59</v>
       </c>
       <c r="J5">
-        <v>1848410</v>
+        <v>1862365</v>
       </c>
       <c r="K5">
         <v>38</v>
@@ -790,16 +790,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E8">
-        <v>320844</v>
+        <v>320871</v>
       </c>
       <c r="F8">
         <v>1229307</v>
       </c>
       <c r="G8">
-        <v>0.093305606172</v>
+        <v>0.09331345812299999</v>
       </c>
       <c r="H8">
-        <v>0.12290936870160002</v>
+        <v>0.12291971189940003</v>
       </c>
     </row>
     <row r="9">
@@ -865,16 +865,16 @@
         <v>image/png</v>
       </c>
       <c r="E11">
-        <v>563743</v>
+        <v>563735</v>
       </c>
       <c r="F11">
         <v>562549</v>
       </c>
       <c r="G11">
-        <v>0.16394379305899998</v>
+        <v>0.163941466555</v>
       </c>
       <c r="H11">
-        <v>0.21595945768020003</v>
+        <v>0.215956393029</v>
       </c>
     </row>
     <row r="12">
@@ -1047,16 +1047,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E18">
-        <v>13619</v>
+        <v>13616</v>
       </c>
       <c r="F18">
         <v>45188</v>
       </c>
       <c r="G18">
-        <v>0.003960582247</v>
+        <v>0.003959709808</v>
       </c>
       <c r="H18">
-        <v>0.0052171855866</v>
+        <v>0.005216036342400001</v>
       </c>
     </row>
     <row r="19">
@@ -1099,16 +1099,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E20">
-        <v>12476</v>
+        <v>12494</v>
       </c>
       <c r="F20">
         <v>12141</v>
       </c>
       <c r="G20">
-        <v>0.0036281829879999997</v>
+        <v>0.0036334176219999996</v>
       </c>
       <c r="H20">
-        <v>0.0047793235464</v>
+        <v>0.004786219011599999</v>
       </c>
     </row>
     <row r="21">
@@ -1125,16 +1125,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E21">
-        <v>11936</v>
+        <v>11897</v>
       </c>
       <c r="F21">
         <v>11563</v>
       </c>
       <c r="G21">
-        <v>0.0034711439679999995</v>
+        <v>0.0034598022609999995</v>
       </c>
       <c r="H21">
-        <v>0.004572459590400001</v>
+        <v>0.0045575194158</v>
       </c>
     </row>
     <row r="22">
@@ -1177,16 +1177,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E23">
-        <v>24259</v>
+        <v>24267</v>
       </c>
       <c r="F23">
         <v>23915</v>
       </c>
       <c r="G23">
-        <v>0.007054832566999999</v>
+        <v>0.007057159070999999</v>
       </c>
       <c r="H23">
-        <v>0.0092931716826</v>
+        <v>0.009296236333800001</v>
       </c>
     </row>
     <row r="24">
@@ -1255,16 +1255,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E26">
-        <v>325276</v>
+        <v>325285</v>
       </c>
       <c r="F26">
         <v>1249958</v>
       </c>
       <c r="G26">
-        <v>0.09459448938799998</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H26">
-        <v>0.1246071854664</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="27">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1404&amp;luid=626ed111-afb1-ace8-2e3e-996dddb890c6&amp;dnt=true&amp;prev=c375986b-7c2e-a4ed-28db-c1cb1e810742&amp;rnd=97643</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1286&amp;luid=2ec36e69-85e0-093c-2766-299c616e25f4&amp;dnt=true&amp;prev=239e39e3-c8df-9812-21dc-934576af17df&amp;rnd=40639</v>
       </c>
       <c r="C27" t="str">
         <v>Image</v>
@@ -1535,16 +1535,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E37">
-        <v>31767</v>
+        <v>31964</v>
       </c>
       <c r="F37">
         <v>31419</v>
       </c>
       <c r="G37">
-        <v>0.009238256571</v>
+        <v>0.009295546731999999</v>
       </c>
       <c r="H37">
-        <v>0.0121693468338</v>
+        <v>0.0122448138696</v>
       </c>
     </row>
     <row r="38">
@@ -1561,16 +1561,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E38">
-        <v>27077</v>
+        <v>26881</v>
       </c>
       <c r="F38">
         <v>26533</v>
       </c>
       <c r="G38">
-        <v>0.007874343600999999</v>
+        <v>0.007817344252999998</v>
       </c>
       <c r="H38">
-        <v>0.010372695067800001</v>
+        <v>0.010297611113400003</v>
       </c>
     </row>
     <row r="39">
@@ -1587,16 +1587,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E39">
-        <v>48100</v>
+        <v>48118</v>
       </c>
       <c r="F39">
         <v>47726</v>
       </c>
       <c r="G39">
-        <v>0.013988105299999998</v>
+        <v>0.013993339933999998</v>
       </c>
       <c r="H39">
-        <v>0.018426215340000003</v>
+        <v>0.018433110805200003</v>
       </c>
     </row>
     <row r="40">
@@ -1844,16 +1844,16 @@
         <v>image/png</v>
       </c>
       <c r="E49">
-        <v>563424</v>
+        <v>563716</v>
       </c>
       <c r="F49">
         <v>562549</v>
       </c>
       <c r="G49">
-        <v>0.163851023712</v>
+        <v>0.16393594110799997</v>
       </c>
       <c r="H49">
-        <v>0.21583725471360005</v>
+        <v>0.2159491144824</v>
       </c>
     </row>
     <row r="50">
@@ -2026,16 +2026,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E56">
-        <v>13617</v>
+        <v>13618</v>
       </c>
       <c r="F56">
         <v>45188</v>
       </c>
       <c r="G56">
-        <v>0.003960000621</v>
+        <v>0.0039602914339999995</v>
       </c>
       <c r="H56">
-        <v>0.0052164194238</v>
+        <v>0.0052168025052</v>
       </c>
     </row>
     <row r="57">
@@ -2078,16 +2078,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E58">
-        <v>12712</v>
+        <v>12493</v>
       </c>
       <c r="F58">
         <v>12141</v>
       </c>
       <c r="G58">
-        <v>0.0036968148559999997</v>
+        <v>0.0036331268089999993</v>
       </c>
       <c r="H58">
-        <v>0.0048697307568</v>
+        <v>0.0047858359302</v>
       </c>
     </row>
     <row r="59">
@@ -2104,16 +2104,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E59">
-        <v>12133</v>
+        <v>11896</v>
       </c>
       <c r="F59">
         <v>11563</v>
       </c>
       <c r="G59">
-        <v>0.0035284341289999995</v>
+        <v>0.0034595114479999997</v>
       </c>
       <c r="H59">
-        <v>0.0046479266262</v>
+        <v>0.004557136334400001</v>
       </c>
     </row>
     <row r="60">
@@ -2130,16 +2130,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E60">
-        <v>33302</v>
+        <v>33067</v>
       </c>
       <c r="F60">
         <v>32705</v>
       </c>
       <c r="G60">
-        <v>0.009684654526</v>
+        <v>0.009616313470999999</v>
       </c>
       <c r="H60">
-        <v>0.012757376782800003</v>
+        <v>0.0126673526538</v>
       </c>
     </row>
     <row r="61">
@@ -2156,16 +2156,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E61">
-        <v>24512</v>
+        <v>24259</v>
       </c>
       <c r="F61">
         <v>23915</v>
       </c>
       <c r="G61">
-        <v>0.007128408255999999</v>
+        <v>0.007054832566999999</v>
       </c>
       <c r="H61">
-        <v>0.0093900912768</v>
+        <v>0.0092931716826</v>
       </c>
     </row>
     <row r="62">
@@ -2182,16 +2182,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E62">
-        <v>25220</v>
+        <v>24975</v>
       </c>
       <c r="F62">
         <v>24622</v>
       </c>
       <c r="G62">
-        <v>0.007334303859999999</v>
+        <v>0.007263054674999998</v>
       </c>
       <c r="H62">
-        <v>0.009661312908</v>
+        <v>0.009567457965000001</v>
       </c>
     </row>
     <row r="63">
@@ -2234,16 +2234,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E64">
-        <v>325294</v>
+        <v>325285</v>
       </c>
       <c r="F64">
         <v>1249958</v>
       </c>
       <c r="G64">
-        <v>0.09459972402199998</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H64">
-        <v>0.12461408093160001</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="65">
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1333&amp;luid=b0f40bbf-49bf-7e7c-e8d6-678437788f0b&amp;dnt=true&amp;prev=8a89c170-73de-6fdb-ab80-c93a240727a8&amp;rnd=22358</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1241&amp;luid=f211ba12-88df-dcc4-7a81-5e71dd07f37f&amp;dnt=true&amp;prev=518cf9f2-e04e-8371-e0e0-e634936d0aba&amp;rnd=63964</v>
       </c>
       <c r="C65" t="str">
         <v>Image</v>
@@ -2413,16 +2413,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E71">
-        <v>10396</v>
+        <v>25693</v>
       </c>
       <c r="F71">
         <v>25314</v>
       </c>
       <c r="G71">
-        <v>0.0030232919479999997</v>
+        <v>0.007471858408999999</v>
       </c>
       <c r="H71">
-        <v>0.003982514234400001</v>
+        <v>0.0098425104102</v>
       </c>
     </row>
     <row r="72">
@@ -2514,16 +2514,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E75">
-        <v>31995</v>
+        <v>31972</v>
       </c>
       <c r="F75">
         <v>31419</v>
       </c>
       <c r="G75">
-        <v>0.009304561935</v>
+        <v>0.009297873235999999</v>
       </c>
       <c r="H75">
-        <v>0.012256689393000003</v>
+        <v>0.0122478785208</v>
       </c>
     </row>
     <row r="76">
@@ -2540,16 +2540,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E76">
-        <v>27109</v>
+        <v>26890</v>
       </c>
       <c r="F76">
         <v>26533</v>
       </c>
       <c r="G76">
-        <v>0.007883649617</v>
+        <v>0.007819961569999999</v>
       </c>
       <c r="H76">
-        <v>0.010384953672600002</v>
+        <v>0.010301058846</v>
       </c>
     </row>
     <row r="77">
@@ -2566,16 +2566,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E77">
-        <v>48310</v>
+        <v>48099</v>
       </c>
       <c r="F77">
         <v>47726</v>
       </c>
       <c r="G77">
-        <v>0.014049176029999999</v>
+        <v>0.013987814486999999</v>
       </c>
       <c r="H77">
-        <v>0.018506662434000003</v>
+        <v>0.018425832258600006</v>
       </c>
     </row>
     <row r="78">
@@ -2823,16 +2823,16 @@
         <v>image/png</v>
       </c>
       <c r="E87">
-        <v>563424</v>
+        <v>563734</v>
       </c>
       <c r="F87">
         <v>562549</v>
       </c>
       <c r="G87">
-        <v>0.163851023712</v>
+        <v>0.16394117574199998</v>
       </c>
       <c r="H87">
-        <v>0.21583725471360005</v>
+        <v>0.2159560099476</v>
       </c>
     </row>
     <row r="88">
@@ -3005,16 +3005,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E94">
-        <v>13614</v>
+        <v>13615</v>
       </c>
       <c r="F94">
         <v>45188</v>
       </c>
       <c r="G94">
-        <v>0.003959128181999999</v>
+        <v>0.003959418994999999</v>
       </c>
       <c r="H94">
-        <v>0.005215270179600001</v>
+        <v>0.005215653261000001</v>
       </c>
     </row>
     <row r="95">
@@ -3057,16 +3057,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E96">
-        <v>12712</v>
+        <v>12485</v>
       </c>
       <c r="F96">
         <v>12141</v>
       </c>
       <c r="G96">
-        <v>0.0036968148559999997</v>
+        <v>0.003630800304999999</v>
       </c>
       <c r="H96">
-        <v>0.0048697307568</v>
+        <v>0.004782771279000001</v>
       </c>
     </row>
     <row r="97">
@@ -3083,16 +3083,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E97">
-        <v>12132</v>
+        <v>11896</v>
       </c>
       <c r="F97">
         <v>11563</v>
       </c>
       <c r="G97">
-        <v>0.0035281433159999997</v>
+        <v>0.0034595114479999997</v>
       </c>
       <c r="H97">
-        <v>0.004647543544800001</v>
+        <v>0.004557136334400001</v>
       </c>
     </row>
     <row r="98">
@@ -3109,16 +3109,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E98">
-        <v>33302</v>
+        <v>33076</v>
       </c>
       <c r="F98">
         <v>32705</v>
       </c>
       <c r="G98">
-        <v>0.009684654526</v>
+        <v>0.009618930787999998</v>
       </c>
       <c r="H98">
-        <v>0.012757376782800003</v>
+        <v>0.0126708003864</v>
       </c>
     </row>
     <row r="99">
@@ -3135,16 +3135,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E99">
-        <v>24512</v>
+        <v>24268</v>
       </c>
       <c r="F99">
         <v>23915</v>
       </c>
       <c r="G99">
-        <v>0.007128408255999999</v>
+        <v>0.0070574498839999986</v>
       </c>
       <c r="H99">
-        <v>0.0093900912768</v>
+        <v>0.0092966194152</v>
       </c>
     </row>
     <row r="100">
@@ -3161,16 +3161,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E100">
-        <v>25219</v>
+        <v>24975</v>
       </c>
       <c r="F100">
         <v>24622</v>
       </c>
       <c r="G100">
-        <v>0.007334013046999999</v>
+        <v>0.007263054674999998</v>
       </c>
       <c r="H100">
-        <v>0.009660929826600002</v>
+        <v>0.009567457965000001</v>
       </c>
     </row>
     <row r="101">
@@ -3213,16 +3213,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E102">
-        <v>325294</v>
+        <v>325285</v>
       </c>
       <c r="F102">
         <v>1249958</v>
       </c>
       <c r="G102">
-        <v>0.09459972402199998</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H102">
-        <v>0.12461408093160001</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="103">
@@ -3230,7 +3230,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1200&amp;luid=24e3d3fa-2eb0-bf95-a9e2-df4aedd50d6e&amp;dnt=true&amp;prev=0a84d36c-1e01-9de7-f584-a89829821ad6&amp;rnd=17577</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nannestad.kommune.no%2F&amp;title=Forsiden%20-%20nannestad%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1281&amp;luid=13adf065-e110-461b-0192-678320273846&amp;dnt=true&amp;prev=9ccfb94d-2096-48f3-b199-532f0004ff5a&amp;rnd=35072</v>
       </c>
       <c r="C103" t="str">
         <v>Image</v>
@@ -3337,19 +3337,22 @@
         <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C107" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D107" t="str">
-        <v/>
+        <v>text/json</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>7416</v>
+      </c>
+      <c r="F107">
+        <v>28951</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.0021566692079999995</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.0028409316624000004</v>
       </c>
     </row>
     <row r="108">
@@ -3357,25 +3360,25 @@
         <v>3</v>
       </c>
       <c r="B108" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nannestad.svg?</v>
       </c>
       <c r="C108" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D108" t="str">
-        <v>text/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E108">
-        <v>7416</v>
+        <v>25693</v>
       </c>
       <c r="F108">
-        <v>28951</v>
+        <v>25314</v>
       </c>
       <c r="G108">
-        <v>0.0021566692079999995</v>
+        <v>0.007471858408999999</v>
       </c>
       <c r="H108">
-        <v>0.0028409316624000004</v>
+        <v>0.0098425104102</v>
       </c>
     </row>
     <row r="109">
@@ -3383,25 +3386,22 @@
         <v>3</v>
       </c>
       <c r="B109" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nannestad.svg?</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C109" t="str">
-        <v>Image</v>
+        <v>Preflight</v>
       </c>
       <c r="D109" t="str">
-        <v>image/svg+xml</v>
+        <v/>
       </c>
       <c r="E109">
-        <v>10396</v>
-      </c>
-      <c r="F109">
-        <v>25314</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0.0030232919479999997</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>0.003982514234400001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3493,16 +3493,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E113">
-        <v>31995</v>
+        <v>31972</v>
       </c>
       <c r="F113">
         <v>31419</v>
       </c>
       <c r="G113">
-        <v>0.009304561935</v>
+        <v>0.009297873235999999</v>
       </c>
       <c r="H113">
-        <v>0.012256689393000003</v>
+        <v>0.0122478785208</v>
       </c>
     </row>
     <row r="114">
@@ -3519,16 +3519,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E114">
-        <v>27109</v>
+        <v>26881</v>
       </c>
       <c r="F114">
         <v>26533</v>
       </c>
       <c r="G114">
-        <v>0.007883649617</v>
+        <v>0.007817344252999998</v>
       </c>
       <c r="H114">
-        <v>0.010384953672600002</v>
+        <v>0.010297611113400003</v>
       </c>
     </row>
     <row r="115">
@@ -3545,16 +3545,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E115">
-        <v>48309</v>
+        <v>48099</v>
       </c>
       <c r="F115">
         <v>47726</v>
       </c>
       <c r="G115">
-        <v>0.014048885216999998</v>
+        <v>0.013987814486999999</v>
       </c>
       <c r="H115">
-        <v>0.018506279352600002</v>
+        <v>0.018425832258600006</v>
       </c>
     </row>
   </sheetData>
@@ -3621,7 +3621,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>2310950</v>
+        <v>2310967</v>
       </c>
       <c r="D4">
         <v>8554095</v>
@@ -3649,7 +3649,7 @@
         <v>45</v>
       </c>
       <c r="C6">
-        <v>2486898</v>
+        <v>2514812</v>
       </c>
       <c r="D6">
         <v>2497815</v>
@@ -3758,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1862346</v>
+        <v>1862377</v>
       </c>
       <c r="C2">
-        <v>0.5415944272979999</v>
+        <v>0.5416034425009999</v>
       </c>
       <c r="D2">
-        <v>0.7134301129644001</v>
+        <v>0.7134419884878</v>
       </c>
     </row>
     <row r="3">
@@ -3772,13 +3772,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1848410</v>
+        <v>1862349</v>
       </c>
       <c r="C3">
-        <v>0.5375416573299999</v>
+        <v>0.5415952997369999</v>
       </c>
       <c r="D3">
-        <v>0.7080914905740001</v>
+        <v>0.7134312622086</v>
       </c>
     </row>
     <row r="4">
@@ -3786,13 +3786,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1848404</v>
+        <v>1862365</v>
       </c>
       <c r="C4">
-        <v>0.537539912452</v>
+        <v>0.541599952745</v>
       </c>
       <c r="D4">
-        <v>0.7080891920856001</v>
+        <v>0.7134373915109999</v>
       </c>
     </row>
     <row r="5">
@@ -3800,13 +3800,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1848410</v>
+        <v>1862365</v>
       </c>
       <c r="C5">
-        <v>0.5375416573299999</v>
+        <v>0.541599952745</v>
       </c>
       <c r="D5">
-        <v>0.7080914905740001</v>
+        <v>0.7134373915109999</v>
       </c>
     </row>
   </sheetData>
